--- a/accepted_parameters.xlsx
+++ b/accepted_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,43 +707,43 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01687123537684805</v>
+        <v>0.01131992780402366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04351761893067231</v>
+        <v>0.04140404815110013</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07603652306772038</v>
+        <v>0.08408205741904816</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002542232375225771</v>
+        <v>0.002772014916604574</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01459906793741139</v>
+        <v>0.01411348220851577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0127980243851495</v>
+        <v>0.01618510648673681</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1770158680014657</v>
+        <v>0.1716192055446953</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1936620999740198</v>
+        <v>0.1789359435188301</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04117392598165356</v>
+        <v>0.05064751209635265</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03331863391690888</v>
+        <v>0.04431842051994239</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04237717671503766</v>
+        <v>0.04604074650102714</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03456266096065246</v>
+        <v>0.05263891028046398</v>
       </c>
       <c r="N2" t="n">
         <v>0.12</v>
@@ -758,109 +758,109 @@
         <v>0.01</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1823888162903547</v>
+        <v>0.1957587305052506</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8156233350142628</v>
+        <v>0.9366151868350885</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8256643038860061</v>
+        <v>0.9376361944805531</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8202692746297056</v>
+        <v>0.9237468580209713</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1271822921171574</v>
+        <v>0.1495656075894224</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1096547201961699</v>
+        <v>0.1996522929335825</v>
       </c>
       <c r="X2" t="n">
-        <v>0.752935728723696</v>
+        <v>0.8897310271502845</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7899401149413993</v>
+        <v>0.8990151621630311</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.756161289653289</v>
+        <v>0.9238045332165398</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1185519276429778</v>
+        <v>0.1252000179930129</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1077264468210006</v>
+        <v>0.1219762129327282</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1995795705095104</v>
+        <v>0.217073347034253</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.7057430885380925</v>
+        <v>0.9079561004432342</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7598243660832233</v>
+        <v>0.9168753243937336</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7927984783751805</v>
+        <v>0.9108136229194904</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.09896385693403582</v>
+        <v>0.1297010230135814</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.09456003437652313</v>
+        <v>0.121555414863838</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.3486006796241597</v>
+        <v>0.3703421887921294</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.7536839469459014</v>
+        <v>0.9189886495020611</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.810792073606559</v>
+        <v>0.9079345857647838</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.8077688130176912</v>
+        <v>0.9165591346890997</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.1084621358956087</v>
+        <v>0.1251793712455298</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1136649084893729</v>
+        <v>0.1388381886751608</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.339325505038556</v>
+        <v>0.4512416187175041</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.7675962390953046</v>
+        <v>0.9183195890307145</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.7898771257574573</v>
+        <v>0.9004355199478535</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.7964221910338256</v>
+        <v>0.8949984799120749</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.1080835713364005</v>
+        <v>0.12167198206031</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.09975850020740505</v>
+        <v>0.143736934307041</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.2431982953457845</v>
+        <v>0.2814780713471024</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.6987896828401564</v>
+        <v>0.8224646474915884</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.8282550963714812</v>
+        <v>0.9329934817578004</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.8357005954287059</v>
+        <v>0.9227554351999759</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1186207072787782</v>
+        <v>0.1341285343230786</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.1191906366454155</v>
+        <v>0.1365612030028113</v>
       </c>
       <c r="BA2" t="n">
         <v>0.1</v>
@@ -869,7 +869,1844 @@
         <v>0.1</v>
       </c>
       <c r="BC2" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01118093353404547</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.04178795055170841</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08527850102092835</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00277320902948171</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0140096759001035</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01640747935730884</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1727456050744099</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.177223174360438</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.05093747659139654</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0445931359911694</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.04671376840213338</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.05262087503611599</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1977906235976433</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9392396811439517</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.9376547217088246</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.93008034615735</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1505487135802152</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.1966632606571873</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.8861294017237542</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.9020243614239248</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.9153750789931957</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.1256721515093296</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.1219038770941869</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2171120364628649</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.9032134157955958</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.9090286190412245</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.9226104546246309</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.128861475030184</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.123354461667379</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.3683725665909356</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.9186385297666891</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.9146815423674983</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.9120058755128146</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1257731505389225</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1388040862841922</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.4521386447986171</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.9091269185971446</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.8983709544417835</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.8926028656500071</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.1227526855767557</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.1427191062453698</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2770862692368341</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.8200713590391283</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.936344118113033</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.9310019476770606</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.1332309951008272</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.1351502025097734</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01127580175683178</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04160440374161527</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08550440759056958</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.002784095887022219</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01404842035695585</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01625016262768065</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1711794270701188</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1780375121780199</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.05037626253227374</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.04403177830328382</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.04620281858505523</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.05306977564324525</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1946773575491414</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9256813523528425</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.9372665132085202</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.9287324755160224</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1510462261349882</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.1965830140692194</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.8851728989698142</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.9005013177864073</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.924784754020447</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1258472403064544</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.1219540580450878</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2162496682104428</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.9073198800713426</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.9026870046342411</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.9151023495824878</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.1287730997620479</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.1222441965970235</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.3649855050648428</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.9224208788305325</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.9019316690916752</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.9217032636034497</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.1260699813986656</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.1396725357220445</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.4533844314753624</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.9101452356039225</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.8896801783044714</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.9080987613247989</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.1232503885254801</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.1429681827515326</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.279900720536427</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.8327442512384273</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.9372712450479969</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.9334565334233051</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.1321819949824067</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.1370034467629276</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01117197474223602</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0415964510871881</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08439229150794833</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002794255406113042</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01397005697578762</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01634429856978946</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1714898121519496</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1790557861854807</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.05098815189172104</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.04388632465926645</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.04612273366698373</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.05235202331670653</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1968102133801641</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9398953540487818</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.929636104360654</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.9312782715320105</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1495861100522398</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.1979778050803251</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.8809827553683063</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.9030969432775774</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.9114627787553029</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.1252579567266392</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.1218080095104661</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.2149726159199112</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.9072712563345857</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.904482145944386</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.9117091139499857</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.129883755682316</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.1220142180680686</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.3705194435145223</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.9249211620463385</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.9118226599000439</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.9148560852321909</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.1248937846746303</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.1403903320152089</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.4501183937154128</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.9199603784259467</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.8865548077428389</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.892063907648018</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.1214473546846938</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.1427390341213675</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.2788835695436754</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.8214332560545958</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.9450215849964524</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.9310646438560575</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.133544610538271</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.1371161256791479</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.01119454418204079</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04214460448281668</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0853022577372908</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.002764271674560352</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01408829094794569</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01627544858866235</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1710343851903122</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1780781449981738</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.05037425282087211</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0443714344293631</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.04678717896222395</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.05313275907170341</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1974913089250216</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9222042925259952</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.9281931699606792</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.9288245717908834</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.150532158732801</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.1981644953849395</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.8757374393938038</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.9113357467871843</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.9184946172645903</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1253093402431079</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.120443403518005</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.2165336574021629</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.9075496967840671</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.9088062416176613</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.9065858824312374</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1293967644671404</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1233266540939885</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.3698235346306438</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.9199877342631092</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.9136731772402847</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.9119154762683211</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1248113666753435</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1385632321978941</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.4474022399639542</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.9080368725183278</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.8995226726367586</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.9004274081026303</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1226827349206986</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1428993542292642</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.2796061421019044</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.8265398949364871</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.9334259009533088</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.9270832416214411</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.1334324464118687</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.1359389723598273</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.01132964869688465</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04191502342917464</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08440623789603117</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002800390971694299</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01392264546198697</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01635517984220252</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.172293477266784</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1789125888821868</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.05098748593068732</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04414953604952442</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.04639224642429138</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.05301479618013319</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1962671691432606</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.9295982611682185</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.9270757014811671</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.9291676982736953</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1494249126411913</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.1967862415079929</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.8893735054031385</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.9148023543977793</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.9126939340862644</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.1263104167488585</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.1213382677984206</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.2151720051542925</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.896624450072794</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.9171175641652162</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.9236413258827451</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.129712350944686</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.1229099467153662</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.3708820913468275</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.9251100550120956</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.9149118094836675</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.9090669337803533</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.1246898872108162</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.140390689565412</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.4524884587319312</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.9116666061974228</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.8898105288913041</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.8938113648457467</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.1215137246895712</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.1422868026539705</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.2810997369557086</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.8196751994109215</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.9322222339870144</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.9229919273184302</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.1320240055618106</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.1349759687377402</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01115305867122762</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04158997275144499</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0850875599172464</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002786172697581973</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01395080945941493</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01616490797526103</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1716952681592896</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1797375575208819</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.05060668254773668</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.04427980993152173</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.04623418015803743</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.05245535735468273</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1974796918893869</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.9395660598598237</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.9356469037975967</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.9364291273060712</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1494353747585314</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.1974822790325192</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.8880059543203598</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.9092619902639452</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.9113361990396304</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.1253343965442511</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.1218611058720505</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.2133804178448126</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.9091210060708262</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.9183407766563346</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.9136663721906505</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.128861829475251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.1226846892394537</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.3658092183004502</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.9295730123304128</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.9038807568611419</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.9194953197734012</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.1255362936643296</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.1395027729644673</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.4516040915033742</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.9180015507470095</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.8918437368864309</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.8969181647825155</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.122063100323279</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.1412510978421432</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.2783805331887825</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.8253445524827053</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.9358166071934667</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.9255125823411763</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.1319091131413179</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.1352590525109165</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01128722645558443</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04197769699343656</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.08475157072480365</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002770487079328499</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.013915547409241</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01624030132645785</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.170231003992218</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1785791194820051</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.05126252120649301</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.04458397663253115</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.04632646078126842</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0527473220661781</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.1971239855913106</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9321873554032771</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.9383378797123876</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.9254721961541845</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.1486193467591623</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.1995448733845098</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.8773382308605349</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.9082170979469212</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.9181267421576624</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.1265541722698487</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.1205044528998573</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.21362566980937</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.9086492085970285</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.9132770598264242</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.9064077059638153</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.1291482067149433</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.1226923800982045</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.3651636085413829</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.9149260688869264</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.9059122462503369</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.9223465629324022</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.1256977455419219</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.1389876403404957</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.4456511143499986</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.9054081086874913</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.8859334475002955</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.9028199480738329</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.1229756758089142</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.1420666301680226</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.2790055424862832</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.8298336389829136</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.9365989116816864</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.9332143323865572</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.1322608322469019</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.1366577414084663</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0112446001511459</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04156923860631347</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.08493319634969231</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002761929344597563</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01400690735144293</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01618648915293546</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1701175212003221</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1785259817492938</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.05062221251683659</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.04409287201714383</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.04654614625068618</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.05305344078825289</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.1939888189617155</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9330904757725722</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.9380692879089413</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.9278373813433241</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1507720060563727</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.197367876533008</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.8932209831623524</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.9032610370812005</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.9090205453906717</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.1247943409718673</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.1209844831528513</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.2166491932743305</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.9025661495208456</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.9014006717148476</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.9112134114490809</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.1301120581572294</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.1237768947069293</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3684386834994591</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.9201964600401403</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.9071550388251016</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.9145897397273451</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.1249100980526021</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.1387284224195033</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.4541913890422235</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.9067349911916274</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.887066591607436</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.8917223826215597</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.1224270227499792</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.1436130702719112</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.282200392597641</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.8214324649768254</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.9412829114758507</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.9289478966638076</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.1326196060639737</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.1368029012216946</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0112375197361705</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04202682345286025</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.08394257768224478</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.002792743921162158</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01400133147463296</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01643151347064515</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1711914195803722</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1785862653973676</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0511245440322793</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.04397794838484487</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.04679041461745648</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.05324285789989544</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.1945376708902145</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9348008223443036</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.9294809000146342</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9351804186824623</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.1484106032981292</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.1997528337364306</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.8932171020622222</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.9001354736168075</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.9187449627135269</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.1253023910171633</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.1209637901765071</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.2146643976656357</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.8922702494102919</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.9044788840894723</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.9114490986721658</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.1298544062622983</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.1220304579409893</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.3708450571337091</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.9277119584634105</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.9010804512039927</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.9223929838801243</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.1263456778871977</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.1409380370957196</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.4466480543505631</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.9109418500729053</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.8984392903240094</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.9080420366526228</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.1218664814678809</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.1432072979323774</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.2804429391274147</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.825242086056843</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.9437094779950339</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.9378152204794638</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.132710383134101</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.1358276017331077</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01123780103302253</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04168090310376843</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.08534021300759438</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.002754073281364428</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.014173376749469</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01635338531223608</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1700742443418373</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1782486239779035</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.05085241601606107</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.04423925970042777</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.04612214694108024</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.05265762310158047</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.196304341301346</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.9305108371700344</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.9317198137899239</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.928803081286171</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.1497175155953342</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.1976821387968824</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.8890712116549343</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.9136573687731155</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.9134844639290814</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.1264686268001493</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.1215854268198277</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.2138849660455491</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.89449672184615</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.9154380656236046</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.91167008196105</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.1283188820002244</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.1220756758384608</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.3674589584108129</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.9184244432258709</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.9140065922841683</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.9069175581570892</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.1271556741958911</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.1386727665216865</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.4465381676683758</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.9186421840360467</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.8986856472939613</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.9034784297585505</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.1226389090324433</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.1432347464948904</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.2778820277294434</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.8312516612878678</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.930636656229338</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.9382718268843772</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.132017183095415</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.137177316582764</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0113099083278721</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.04193159468520545</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.08438273614181759</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002781594685470874</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01414648609163756</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01638258269960294</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1700000882852076</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1795007627021664</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.05089336637089683</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.04398043964909641</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.04630571041241915</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.05290163221835634</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.1959243528827528</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.9328348534405859</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.9336347581624062</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.939054557848527</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.1481577878827665</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.1961240770716152</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.8855710032904082</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.9126285891763658</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.9111896500173832</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.1252546962096335</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.1200167311432197</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.2166383009084205</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.8955915634401963</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.9183908058493118</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.908498632714107</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.1287051353815975</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.1218656212894653</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.3701248871180252</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.9270853984198761</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.9016643964329824</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.9177947606525456</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.1264060641827834</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.139088857221348</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.452565003385574</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.9037363146195051</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.8883927025371789</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.9071168331655338</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.1231592386640194</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.1421949613395723</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.2816987270955821</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.8279762963092042</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.9378423694117142</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.9282615284688872</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.1321098123593925</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.1356830704794046</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
